--- a/docs/טבלת השוואה(comb2) עבור אלגוריתם 1.xlsx
+++ b/docs/טבלת השוואה(comb2) עבור אלגוריתם 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OOP\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -400,7 +400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +410,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,9 +432,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,7 +719,7 @@
   <dimension ref="A1:O416"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -761,6 +768,10 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="H2" s="2">
+        <f>AVERAGE(H3:H416)</f>
+        <v>3.0173114791660295E-5</v>
+      </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
